--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Calca-Calcr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Calca-Calcr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -440,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,61 +516,123 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.1472293333333334</v>
+      </c>
+      <c r="H2">
+        <v>0.441688</v>
+      </c>
+      <c r="I2">
+        <v>0.2923521718179941</v>
+      </c>
+      <c r="J2">
+        <v>0.2923521718179941</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>5.194209333333333</v>
+      </c>
+      <c r="N2">
+        <v>15.582628</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>0.7647399773404445</v>
+      </c>
+      <c r="R2">
+        <v>6.882659796064</v>
+      </c>
+      <c r="S2">
+        <v>0.2923521718179941</v>
+      </c>
+      <c r="T2">
+        <v>0.2923521718179941</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0.32830332714988</v>
-      </c>
-      <c r="H2">
-        <v>0.32830332714988</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>2.70633651492367</v>
-      </c>
-      <c r="N2">
-        <v>2.70633651492367</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>0.8884992822366516</v>
-      </c>
-      <c r="R2">
-        <v>0.8884992822366516</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0.3563733333333333</v>
+      </c>
+      <c r="H3">
+        <v>1.06912</v>
+      </c>
+      <c r="I3">
+        <v>0.7076478281820058</v>
+      </c>
+      <c r="J3">
+        <v>0.7076478281820059</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>5.194209333333333</v>
+      </c>
+      <c r="N3">
+        <v>15.582628</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1.851077694151111</v>
+      </c>
+      <c r="R3">
+        <v>16.65969924736</v>
+      </c>
+      <c r="S3">
+        <v>0.7076478281820058</v>
+      </c>
+      <c r="T3">
+        <v>0.7076478281820059</v>
       </c>
     </row>
   </sheetData>
